--- a/doc/spec/error_codes.xlsx
+++ b/doc/spec/error_codes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="88">
   <si>
     <t>SUMMARY</t>
     <phoneticPr fontId="1"/>
@@ -885,10 +885,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>PARSRE_ERROR_TEST_CASE_TABLE_CONFIGURATION_INVALID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>テストケースの入力情報不備</t>
     <rPh sb="7" eb="11">
       <t>ニュウリョクジョウホウ</t>
@@ -1085,6 +1081,77 @@
   </si>
   <si>
     <t>MACRO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テストケースの入力/期待値(出力)に不備がある。
+・条件の値が設定されていない。
+・条件に、不適切な値が設定されている。</t>
+    <rPh sb="7" eb="9">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>キタイチ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>フビ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="46" eb="49">
+      <t>フテキセツ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PARSER_ERROR_TEST_INPUT_OUTPUT_DESCRIPTION_INVALID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テストケースの定義ファイル不備</t>
+    <rPh sb="7" eb="9">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>フビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テストケースのテーブルの解析設定情報に不備がある。</t>
+    <rPh sb="12" eb="18">
+      <t>カイセキセッテイジョウホウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>フビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PARSRE_ERROR_TEST_CASE_TABLE_CONFIGURATION_INVALID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PARSRE_ERROR_TEST_CASE_TABLE_PARSER_CONFIGURATION_INVALID</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1474,9 +1541,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G31"/>
+  <dimension ref="B2:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="E13" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1492,22 +1561,22 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="45" x14ac:dyDescent="0.15">
@@ -1533,7 +1602,7 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B4" s="4">
-        <f t="shared" ref="B4:B30" si="0">B3+1</f>
+        <f t="shared" ref="B4:B31" si="0">B3+1</f>
         <v>4098</v>
       </c>
       <c r="C4" s="4" t="str">
@@ -1911,7 +1980,7 @@
         <v>4115</v>
       </c>
       <c r="C21" s="4" t="str">
-        <f t="shared" ref="C21:C30" si="2">"0x"&amp;DEC2HEX(B21, 4)</f>
+        <f t="shared" ref="C21:C31" si="2">"0x"&amp;DEC2HEX(B21, 4)</f>
         <v>0x1013</v>
       </c>
       <c r="D21" s="2" t="s">
@@ -2003,11 +2072,11 @@
     </row>
     <row r="26" spans="2:7" ht="22.5" x14ac:dyDescent="0.15">
       <c r="B26" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B26:B33" si="3">B25+1</f>
         <v>4119</v>
       </c>
       <c r="C26" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="C26:C33" si="4">"0x"&amp;DEC2HEX(B26, 4)</f>
         <v>0x1017</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -2020,104 +2089,148 @@
         <v>66</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" ht="33.75" x14ac:dyDescent="0.15">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B27" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4120</v>
       </c>
       <c r="C27" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0x1018</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="2:7" ht="33.75" x14ac:dyDescent="0.15">
       <c r="B28" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4121</v>
       </c>
       <c r="C28" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0x1019</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E28" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="29" spans="2:7" ht="33.75" x14ac:dyDescent="0.15">
       <c r="B29" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4122</v>
       </c>
       <c r="C29" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0x101A</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="33.75" x14ac:dyDescent="0.15">
       <c r="B30" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>4123</v>
       </c>
       <c r="C30" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0x101B</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F30" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="B31" s="4">
+        <f t="shared" si="3"/>
+        <v>4124</v>
+      </c>
+      <c r="C31" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>0x101C</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="B32" s="4">
+        <f t="shared" si="3"/>
+        <v>4125</v>
+      </c>
+      <c r="C32" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>0x101D</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G30" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
